--- a/run/output/iecodebook/harmonization_report.xlsx
+++ b/run/output/iecodebook/harmonization_report.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="142" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -85,7 +85,7 @@
     <t>Length (in.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Turn Circle (ft.) </t>
+    <t>Turn Circle (ft.)</t>
   </si>
   <si>
     <t>Displacement (cu. in.)</t>
@@ -115,75 +115,18 @@
     <t>float</t>
   </si>
   <si>
-    <t>byte</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>byte</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>byte</t>
-  </si>
-  <si>
     <t>choices</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>origin</t>
   </si>
   <si>
-    <t>survey</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -194,204 +137,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>Foreign</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>mpg</t>
-  </si>
-  <si>
-    <t>rep78</t>
-  </si>
-  <si>
-    <t>headroom</t>
-  </si>
-  <si>
-    <t>trunk</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
-    <t>displacement</t>
-  </si>
-  <si>
-    <t>gear_ratio</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Make and Model</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Mileage (mpg)</t>
-  </si>
-  <si>
-    <t>Repair Record 1978</t>
-  </si>
-  <si>
-    <t>Headroom (in.)</t>
-  </si>
-  <si>
-    <t>Trunk space (cu. ft.)</t>
-  </si>
-  <si>
-    <t>Weight (lbs.)</t>
-  </si>
-  <si>
-    <t>Length (in.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn Circle (ft.) </t>
-  </si>
-  <si>
-    <t>Displacement (cu. in.)</t>
-  </si>
-  <si>
-    <t>Gear Ratio</t>
-  </si>
-  <si>
-    <t>Car type</t>
-  </si>
-  <si>
-    <t>Data Source</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>str17</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>byte</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>byte</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>byte</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>byte</t>
-  </si>
-  <si>
-    <t>choices</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
   <si>
     <t>Domestic</t>
@@ -409,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -446,204 +191,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -651,63 +399,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
